--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -659,7 +659,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr"/>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="8" t="n">
@@ -813,7 +817,11 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="8" t="inlineStr"/>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -52,12 +52,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b0b0b0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -147,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +184,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -552,6 +563,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="10" t="n"/>
@@ -561,6 +577,11 @@
           <t>MAT14</t>
         </is>
       </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>BINDO7</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="8" t="n">
@@ -572,6 +593,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr"/>
+      <c r="D3" s="13" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="8" t="n">
@@ -583,6 +605,7 @@
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr"/>
+      <c r="D4" s="13" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="8" t="n">
@@ -594,6 +617,7 @@
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr"/>
+      <c r="D5" s="13" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="8" t="n">
@@ -605,6 +629,7 @@
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr"/>
+      <c r="D6" s="13" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="8" t="n">
@@ -616,6 +641,7 @@
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr"/>
+      <c r="D7" s="13" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="8" t="n">
@@ -627,6 +653,7 @@
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr"/>
+      <c r="D8" s="13" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="8" t="n">
@@ -638,6 +665,7 @@
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr"/>
+      <c r="D9" s="13" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="8" t="n">
@@ -649,6 +677,7 @@
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr"/>
+      <c r="D10" s="13" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="8" t="n">
@@ -664,6 +693,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="8" t="n">
@@ -675,6 +709,7 @@
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr"/>
+      <c r="D12" s="13" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="8" t="n">
@@ -686,6 +721,7 @@
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr"/>
+      <c r="D13" s="13" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="8" t="n">
@@ -697,6 +733,7 @@
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr"/>
+      <c r="D14" s="13" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="8" t="n">
@@ -708,6 +745,7 @@
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr"/>
+      <c r="D15" s="13" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="8" t="n">
@@ -719,6 +757,7 @@
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr"/>
+      <c r="D16" s="13" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="8" t="n">
@@ -730,6 +769,7 @@
         </is>
       </c>
       <c r="C17" s="8" t="inlineStr"/>
+      <c r="D17" s="13" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="8" t="n">
@@ -741,6 +781,11 @@
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="8" t="n">
@@ -752,6 +797,7 @@
         </is>
       </c>
       <c r="C19" s="8" t="inlineStr"/>
+      <c r="D19" s="13" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="8" t="n">
@@ -763,6 +809,7 @@
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr"/>
+      <c r="D20" s="13" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="8" t="n">
@@ -774,6 +821,7 @@
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr"/>
+      <c r="D21" s="13" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="8" t="n">
@@ -785,6 +833,7 @@
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr"/>
+      <c r="D22" s="13" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="8" t="n">
@@ -796,6 +845,7 @@
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr"/>
+      <c r="D23" s="13" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="8" t="n">
@@ -807,6 +857,11 @@
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr"/>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="8" t="n">
@@ -822,6 +877,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D25" s="13" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="8" t="n">
@@ -833,6 +889,7 @@
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr"/>
+      <c r="D26" s="13" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="8" t="n">
@@ -844,6 +901,7 @@
         </is>
       </c>
       <c r="C27" s="8" t="inlineStr"/>
+      <c r="D27" s="13" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="8" t="n">
@@ -859,6 +917,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D28" s="13" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="8" t="n">
@@ -870,6 +929,7 @@
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr"/>
+      <c r="D29" s="13" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="8" t="n">
@@ -881,6 +941,7 @@
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr"/>
+      <c r="D30" s="13" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="8" t="n">
@@ -892,6 +953,7 @@
         </is>
       </c>
       <c r="C31" s="8" t="inlineStr"/>
+      <c r="D31" s="13" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="8" t="n">
@@ -903,6 +965,7 @@
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr"/>
+      <c r="D32" s="13" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="8" t="n">
@@ -914,6 +977,7 @@
         </is>
       </c>
       <c r="C33" s="8" t="inlineStr"/>
+      <c r="D33" s="13" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="8" t="n">
@@ -925,6 +989,7 @@
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr"/>
+      <c r="D34" s="13" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="8" t="n">
@@ -940,6 +1005,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="8" t="n">
@@ -951,6 +1021,7 @@
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr"/>
+      <c r="D36" s="13" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="8" t="n">
@@ -962,6 +1033,7 @@
         </is>
       </c>
       <c r="C37" s="8" t="inlineStr"/>
+      <c r="D37" s="13" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -535,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -568,6 +568,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="10" t="n"/>
@@ -582,6 +587,11 @@
           <t>BINDO7</t>
         </is>
       </c>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>BASDA4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="8" t="n">
@@ -594,6 +604,7 @@
       </c>
       <c r="C3" s="8" t="inlineStr"/>
       <c r="D3" s="13" t="inlineStr"/>
+      <c r="E3" s="8" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="8" t="n">
@@ -606,6 +617,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr"/>
       <c r="D4" s="13" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="8" t="n">
@@ -617,7 +629,12 @@
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr"/>
-      <c r="D5" s="13" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="8" t="n">
@@ -630,6 +647,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr"/>
       <c r="D6" s="13" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="8" t="n">
@@ -642,6 +660,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr"/>
       <c r="D7" s="13" t="inlineStr"/>
+      <c r="E7" s="8" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="8" t="n">
@@ -654,6 +673,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr"/>
       <c r="D8" s="13" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="8" t="n">
@@ -666,6 +686,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr"/>
       <c r="D9" s="13" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="8" t="n">
@@ -678,6 +699,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr"/>
       <c r="D10" s="13" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="8" t="n">
@@ -698,6 +720,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="8" t="n">
@@ -710,6 +733,7 @@
       </c>
       <c r="C12" s="8" t="inlineStr"/>
       <c r="D12" s="13" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="8" t="n">
@@ -722,6 +746,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr"/>
       <c r="D13" s="13" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="8" t="n">
@@ -733,7 +758,12 @@
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr"/>
-      <c r="D14" s="13" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="8" t="n">
@@ -746,6 +776,7 @@
       </c>
       <c r="C15" s="8" t="inlineStr"/>
       <c r="D15" s="13" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="8" t="n">
@@ -758,6 +789,7 @@
       </c>
       <c r="C16" s="8" t="inlineStr"/>
       <c r="D16" s="13" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="8" t="n">
@@ -770,6 +802,7 @@
       </c>
       <c r="C17" s="8" t="inlineStr"/>
       <c r="D17" s="13" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="8" t="n">
@@ -786,6 +819,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="8" t="n">
@@ -798,6 +832,7 @@
       </c>
       <c r="C19" s="8" t="inlineStr"/>
       <c r="D19" s="13" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="8" t="n">
@@ -810,6 +845,7 @@
       </c>
       <c r="C20" s="8" t="inlineStr"/>
       <c r="D20" s="13" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="8" t="n">
@@ -822,6 +858,7 @@
       </c>
       <c r="C21" s="8" t="inlineStr"/>
       <c r="D21" s="13" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="8" t="n">
@@ -834,6 +871,7 @@
       </c>
       <c r="C22" s="8" t="inlineStr"/>
       <c r="D22" s="13" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="8" t="n">
@@ -846,6 +884,7 @@
       </c>
       <c r="C23" s="8" t="inlineStr"/>
       <c r="D23" s="13" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="8" t="n">
@@ -862,6 +901,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E24" s="8" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="8" t="n">
@@ -877,7 +917,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr"/>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="8" t="n">
@@ -889,7 +938,12 @@
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr"/>
-      <c r="D26" s="13" t="inlineStr"/>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="8" t="n">
@@ -902,6 +956,7 @@
       </c>
       <c r="C27" s="8" t="inlineStr"/>
       <c r="D27" s="13" t="inlineStr"/>
+      <c r="E27" s="8" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="8" t="n">
@@ -918,6 +973,7 @@
         </is>
       </c>
       <c r="D28" s="13" t="inlineStr"/>
+      <c r="E28" s="8" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="8" t="n">
@@ -930,6 +986,7 @@
       </c>
       <c r="C29" s="8" t="inlineStr"/>
       <c r="D29" s="13" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="8" t="n">
@@ -942,6 +999,7 @@
       </c>
       <c r="C30" s="8" t="inlineStr"/>
       <c r="D30" s="13" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="8" t="n">
@@ -952,8 +1010,17 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="8" t="inlineStr"/>
-      <c r="D31" s="13" t="inlineStr"/>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="8" t="n">
@@ -966,6 +1033,7 @@
       </c>
       <c r="C32" s="8" t="inlineStr"/>
       <c r="D32" s="13" t="inlineStr"/>
+      <c r="E32" s="8" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="8" t="n">
@@ -978,6 +1046,7 @@
       </c>
       <c r="C33" s="8" t="inlineStr"/>
       <c r="D33" s="13" t="inlineStr"/>
+      <c r="E33" s="8" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="8" t="n">
@@ -989,7 +1058,12 @@
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr"/>
-      <c r="D34" s="13" t="inlineStr"/>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="8" t="n">
@@ -1010,6 +1084,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E35" s="8" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="8" t="n">
@@ -1022,6 +1097,7 @@
       </c>
       <c r="C36" s="8" t="inlineStr"/>
       <c r="D36" s="13" t="inlineStr"/>
+      <c r="E36" s="8" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="8" t="n">
@@ -1034,6 +1110,7 @@
       </c>
       <c r="C37" s="8" t="inlineStr"/>
       <c r="D37" s="13" t="inlineStr"/>
+      <c r="E37" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -535,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -573,6 +573,11 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="10" t="n"/>
@@ -592,6 +597,11 @@
           <t>BASDA4</t>
         </is>
       </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>PKK7</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="8" t="n">
@@ -605,6 +615,11 @@
       <c r="C3" s="8" t="inlineStr"/>
       <c r="D3" s="13" t="inlineStr"/>
       <c r="E3" s="8" t="inlineStr"/>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="8" t="n">
@@ -618,6 +633,7 @@
       <c r="C4" s="8" t="inlineStr"/>
       <c r="D4" s="13" t="inlineStr"/>
       <c r="E4" s="8" t="inlineStr"/>
+      <c r="F4" s="13" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="8" t="n">
@@ -635,6 +651,11 @@
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr"/>
+      <c r="F5" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="8" t="n">
@@ -648,6 +669,7 @@
       <c r="C6" s="8" t="inlineStr"/>
       <c r="D6" s="13" t="inlineStr"/>
       <c r="E6" s="8" t="inlineStr"/>
+      <c r="F6" s="13" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="8" t="n">
@@ -658,9 +680,22 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr"/>
-      <c r="D7" s="13" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="8" t="inlineStr"/>
+      <c r="F7" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="8" t="n">
@@ -674,6 +709,7 @@
       <c r="C8" s="8" t="inlineStr"/>
       <c r="D8" s="13" t="inlineStr"/>
       <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="13" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="8" t="n">
@@ -687,6 +723,11 @@
       <c r="C9" s="8" t="inlineStr"/>
       <c r="D9" s="13" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="8" t="n">
@@ -700,6 +741,7 @@
       <c r="C10" s="8" t="inlineStr"/>
       <c r="D10" s="13" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="13" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="8" t="n">
@@ -721,6 +763,7 @@
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="13" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="8" t="n">
@@ -734,6 +777,7 @@
       <c r="C12" s="8" t="inlineStr"/>
       <c r="D12" s="13" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="13" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="8" t="n">
@@ -744,9 +788,22 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr"/>
-      <c r="D13" s="13" t="inlineStr"/>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="8" t="n">
@@ -757,13 +814,22 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr"/>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="8" t="n">
@@ -777,6 +843,11 @@
       <c r="C15" s="8" t="inlineStr"/>
       <c r="D15" s="13" t="inlineStr"/>
       <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="8" t="n">
@@ -790,6 +861,11 @@
       <c r="C16" s="8" t="inlineStr"/>
       <c r="D16" s="13" t="inlineStr"/>
       <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="8" t="n">
@@ -803,6 +879,7 @@
       <c r="C17" s="8" t="inlineStr"/>
       <c r="D17" s="13" t="inlineStr"/>
       <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="13" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="8" t="n">
@@ -820,6 +897,11 @@
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="8" t="n">
@@ -830,9 +912,26 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr"/>
-      <c r="D19" s="13" t="inlineStr"/>
-      <c r="E19" s="8" t="inlineStr"/>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="8" t="n">
@@ -846,6 +945,7 @@
       <c r="C20" s="8" t="inlineStr"/>
       <c r="D20" s="13" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="13" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="8" t="n">
@@ -859,6 +959,7 @@
       <c r="C21" s="8" t="inlineStr"/>
       <c r="D21" s="13" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="13" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="8" t="n">
@@ -872,6 +973,7 @@
       <c r="C22" s="8" t="inlineStr"/>
       <c r="D22" s="13" t="inlineStr"/>
       <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="13" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="8" t="n">
@@ -885,6 +987,7 @@
       <c r="C23" s="8" t="inlineStr"/>
       <c r="D23" s="13" t="inlineStr"/>
       <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="13" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="8" t="n">
@@ -895,13 +998,22 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr"/>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr"/>
+      <c r="F24" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="8" t="n">
@@ -927,6 +1039,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="F25" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="8" t="n">
@@ -944,6 +1061,11 @@
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="8" t="n">
@@ -957,6 +1079,7 @@
       <c r="C27" s="8" t="inlineStr"/>
       <c r="D27" s="13" t="inlineStr"/>
       <c r="E27" s="8" t="inlineStr"/>
+      <c r="F27" s="13" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="8" t="n">
@@ -974,6 +1097,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr"/>
       <c r="E28" s="8" t="inlineStr"/>
+      <c r="F28" s="13" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="8" t="n">
@@ -987,6 +1111,7 @@
       <c r="C29" s="8" t="inlineStr"/>
       <c r="D29" s="13" t="inlineStr"/>
       <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="13" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="8" t="n">
@@ -1000,6 +1125,7 @@
       <c r="C30" s="8" t="inlineStr"/>
       <c r="D30" s="13" t="inlineStr"/>
       <c r="E30" s="8" t="inlineStr"/>
+      <c r="F30" s="13" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="8" t="n">
@@ -1021,6 +1147,11 @@
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr"/>
+      <c r="F31" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="8" t="n">
@@ -1034,6 +1165,7 @@
       <c r="C32" s="8" t="inlineStr"/>
       <c r="D32" s="13" t="inlineStr"/>
       <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="13" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="8" t="n">
@@ -1045,8 +1177,17 @@
         </is>
       </c>
       <c r="C33" s="8" t="inlineStr"/>
-      <c r="D33" s="13" t="inlineStr"/>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="8" t="n">
@@ -1064,6 +1205,11 @@
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr"/>
+      <c r="F34" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="8" t="n">
@@ -1084,7 +1230,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="8" t="inlineStr"/>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="8" t="n">
@@ -1098,6 +1253,7 @@
       <c r="C36" s="8" t="inlineStr"/>
       <c r="D36" s="13" t="inlineStr"/>
       <c r="E36" s="8" t="inlineStr"/>
+      <c r="F36" s="13" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="8" t="n">
@@ -1110,7 +1266,12 @@
       </c>
       <c r="C37" s="8" t="inlineStr"/>
       <c r="D37" s="13" t="inlineStr"/>
-      <c r="E37" s="8" t="inlineStr"/>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -859,7 +859,11 @@
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="13" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E16" s="8" t="inlineStr"/>
       <c r="F16" s="14" t="inlineStr">
         <is>
@@ -958,8 +962,16 @@
       </c>
       <c r="C21" s="8" t="inlineStr"/>
       <c r="D21" s="13" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="13" t="inlineStr"/>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="8" t="n">
@@ -1079,7 +1091,11 @@
       <c r="C27" s="8" t="inlineStr"/>
       <c r="D27" s="13" t="inlineStr"/>
       <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="13" t="inlineStr"/>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -720,8 +720,16 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr"/>
-      <c r="D9" s="13" t="inlineStr"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="14" t="inlineStr">
         <is>
@@ -1162,7 +1170,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr"/>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F31" s="14" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -38,6 +38,10 @@
       <sz val="14"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -47,17 +51,18 @@
     <font>
       <sz val="14"/>
     </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -166,30 +171,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,768 +552,814 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="A2" s="13" t="n"/>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>MAT14</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>BINDO7</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>BASDA4</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="14" t="inlineStr">
         <is>
           <t>PKK7</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr"/>
-      <c r="D3" s="13" t="inlineStr"/>
-      <c r="E3" s="8" t="inlineStr"/>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr"/>
-      <c r="D4" s="13" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr"/>
-      <c r="F4" s="13" t="inlineStr"/>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="17" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr"/>
-      <c r="D5" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr"/>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr"/>
-      <c r="D6" s="13" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr"/>
-      <c r="F6" s="13" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
+      <c r="F6" s="17" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D7" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr"/>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr"/>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr"/>
-      <c r="D8" s="13" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr"/>
-      <c r="F8" s="13" t="inlineStr"/>
+      <c r="C8" s="11" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
+      <c r="F8" s="17" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr"/>
+      <c r="F9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr"/>
-      <c r="D10" s="13" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="13" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
+      <c r="D10" s="17" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
+      <c r="F10" s="17" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="13" t="inlineStr"/>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr"/>
+      <c r="F11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr"/>
-      <c r="D12" s="13" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="13" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr"/>
+      <c r="D12" s="17" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="17" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr"/>
+      <c r="F13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr"/>
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="13" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="14" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
+      <c r="F15" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="14" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr"/>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr"/>
-      <c r="D17" s="13" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="13" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr"/>
+      <c r="D17" s="17" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="17" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr"/>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="14" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr"/>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr"/>
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr"/>
-      <c r="D20" s="13" t="inlineStr"/>
-      <c r="E20" s="8" t="inlineStr"/>
-      <c r="F20" s="13" t="inlineStr"/>
+      <c r="C20" s="11" t="inlineStr"/>
+      <c r="D20" s="17" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="17" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr"/>
-      <c r="D21" s="13" t="inlineStr"/>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F21" s="14" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr"/>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr"/>
-      <c r="D22" s="13" t="inlineStr"/>
-      <c r="E22" s="8" t="inlineStr"/>
-      <c r="F22" s="13" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="17" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="13" t="inlineStr"/>
-      <c r="E23" s="8" t="inlineStr"/>
-      <c r="F23" s="13" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr"/>
+      <c r="D23" s="17" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="17" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr"/>
-      <c r="F24" s="14" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="14" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr"/>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="8" t="inlineStr"/>
-      <c r="D27" s="13" t="inlineStr"/>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="C27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="inlineStr"/>
-      <c r="E28" s="8" t="inlineStr"/>
-      <c r="F28" s="13" t="inlineStr"/>
+      <c r="C28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="17" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr"/>
-      <c r="D29" s="13" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="F29" s="13" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="17" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr"/>
-      <c r="D30" s="13" t="inlineStr"/>
-      <c r="E30" s="8" t="inlineStr"/>
-      <c r="F30" s="13" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="17" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="17" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E31" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F31" s="14" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr"/>
-      <c r="D32" s="13" t="inlineStr"/>
-      <c r="E32" s="8" t="inlineStr"/>
-      <c r="F32" s="13" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="17" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr"/>
-      <c r="D33" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr"/>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr"/>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr"/>
-      <c r="D34" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="inlineStr"/>
-      <c r="F34" s="14" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="14" t="inlineStr">
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr"/>
-      <c r="D36" s="13" t="inlineStr"/>
-      <c r="E36" s="8" t="inlineStr"/>
-      <c r="F36" s="13" t="inlineStr"/>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr"/>
-      <c r="D37" s="13" t="inlineStr"/>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr"/>
+      <c r="D37" s="17" t="inlineStr"/>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="17" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -770,7 +770,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr"/>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -810,7 +814,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr"/>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F11" s="17" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
@@ -872,7 +880,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr"/>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -912,7 +924,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F16" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -668,7 +668,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr"/>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="17" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
@@ -854,7 +858,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr"/>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -901,7 +909,11 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="17" t="inlineStr"/>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="11" t="inlineStr"/>
       <c r="F15" s="16" t="inlineStr">
         <is>
@@ -1084,7 +1096,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr"/>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F24" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1130,13 +1146,21 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F26" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1250,7 +1274,11 @@
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr"/>
+      <c r="C32" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D32" s="17" t="inlineStr"/>
       <c r="E32" s="11" t="inlineStr"/>
       <c r="F32" s="17" t="inlineStr"/>
@@ -1264,13 +1292,21 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr"/>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D33" s="16" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="E33" s="11" t="inlineStr"/>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F33" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -694,7 +694,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1037,7 +1041,11 @@
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr"/>
-      <c r="D21" s="17" t="inlineStr"/>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1181,7 +1189,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="17" t="inlineStr"/>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E27" s="11" t="inlineStr"/>
       <c r="F27" s="16" t="inlineStr">
         <is>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -673,7 +673,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F4" s="17" t="inlineStr"/>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -738,7 +742,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F7" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -980,7 +988,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1194,7 +1206,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr"/>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="16" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1334,7 +1350,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D34" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -1232,7 +1232,11 @@
         </is>
       </c>
       <c r="D28" s="17" t="inlineStr"/>
-      <c r="E28" s="11" t="inlineStr"/>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="17" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -835,7 +835,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F11" s="17" t="inlineStr"/>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -1264,7 +1268,11 @@
       </c>
       <c r="C30" s="11" t="inlineStr"/>
       <c r="D30" s="17" t="inlineStr"/>
-      <c r="E30" s="11" t="inlineStr"/>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F30" s="17" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -1056,7 +1056,11 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr"/>
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D21" s="16" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -972,7 +972,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr"/>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D17" s="17" t="inlineStr"/>
       <c r="E17" s="11" t="inlineStr"/>
       <c r="F17" s="17" t="inlineStr"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-14 (25 Oktober 2021 - 31 Oktober 2021).xlsx
@@ -1249,7 +1249,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F28" s="17" t="inlineStr"/>
+      <c r="F28" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
